--- a/data/trans_camb/P1419-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1419-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.932891913018631</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.4212601603748624</v>
+        <v>-0.4212601603748617</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-3.719537605246543</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.867736521544747</v>
+        <v>-6.833751974913042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.045424565899493</v>
+        <v>-6.172566202148776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.516916723028503</v>
+        <v>-3.429335667510227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.548027572723322</v>
+        <v>-6.613437527518736</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.404814258563196</v>
+        <v>-8.547157252510464</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.242485363475432</v>
+        <v>-2.894043342499358</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.713105374029237</v>
+        <v>-7.002446931155743</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.25747387003515</v>
+        <v>-7.436135347484768</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.789171056364403</v>
+        <v>-2.772284261050278</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.547315951515456</v>
+        <v>-2.41174360315852</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.101583156447044</v>
+        <v>-2.212451243005328</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.048592522838257</v>
+        <v>2.297127224167002</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.005652217317849</v>
+        <v>-0.6403462038585446</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.229735502430522</v>
+        <v>-2.817257079244319</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.322964854096301</v>
+        <v>3.193876194906379</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.845885498258319</v>
+        <v>-3.101591788675881</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.582234772793937</v>
+        <v>-3.706085773150591</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.844012519592115</v>
+        <v>1.677712410099182</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.6754859836672109</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.07235269621030974</v>
+        <v>-0.07235269621030962</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2811207260210247</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8873239294818392</v>
+        <v>-0.8933375474152101</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.820067473352139</v>
+        <v>-0.8075855121926577</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4728853968294944</v>
+        <v>-0.4722317285182019</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4419015267718849</v>
+        <v>-0.4443218419018222</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5705431040378462</v>
+        <v>-0.5671238789516663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2149221667456347</v>
+        <v>-0.1926644442726894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.573933107820402</v>
+        <v>-0.5936547554568545</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6308216664990313</v>
+        <v>-0.6389862133614139</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2428068559774798</v>
+        <v>-0.2285891772123119</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.5143631446682628</v>
+        <v>-0.50735786780053</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4831393170984277</v>
+        <v>-0.4640514881100047</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4716658684027581</v>
+        <v>0.5439779129995165</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08330399620086185</v>
+        <v>-0.05361775436408311</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.267015015694173</v>
+        <v>-0.2421225475844531</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2894343473239061</v>
+        <v>0.2754355763401271</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3072147999397967</v>
+        <v>-0.3324632167423732</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3883464245177323</v>
+        <v>-0.405641894180076</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.200364422048648</v>
+        <v>0.189862261068912</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.955556761136376</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3211376600144214</v>
+        <v>0.3211376600144228</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.45819729942982</v>
+        <v>-2.462547926418852</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.629630009029624</v>
+        <v>-1.657176998629481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3144237720882672</v>
+        <v>-0.2168203758551472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.536054667488398</v>
+        <v>-4.467031399736245</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.431356457780602</v>
+        <v>-6.902189869891558</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.71154395189751</v>
+        <v>-3.530154081666432</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.698604072205461</v>
+        <v>-2.682688347142779</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.496976184314393</v>
+        <v>-3.305433771415957</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.176965063259431</v>
+        <v>-1.084926916980889</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.00398223024107367</v>
+        <v>-0.02209819904572514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.13947761644805</v>
+        <v>1.05009113959101</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.655737486821987</v>
+        <v>2.579175449683021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7393948437309505</v>
+        <v>0.8006456898466945</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.422578301102474</v>
+        <v>-1.664515908936983</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.304487820447983</v>
+        <v>1.27789486504525</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2908687739136245</v>
+        <v>0.1519799235868283</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.5233744047196032</v>
+        <v>-0.4983385003601012</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.740988116659838</v>
+        <v>1.753861461642204</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.293998964194588</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.04827992788777428</v>
+        <v>0.04827992788777449</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7591065832789712</v>
+        <v>-0.7504983874663333</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5267674731110856</v>
+        <v>-0.5203374140101098</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1335300865810803</v>
+        <v>-0.07998149286773171</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3673360725089079</v>
+        <v>-0.3596537113109778</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5314614673627636</v>
+        <v>-0.5469828018465036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2970915257301268</v>
+        <v>-0.2849914818405726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3603950661303527</v>
+        <v>-0.3596535875629132</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4677572864273203</v>
+        <v>-0.4538135160990636</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1565137166528627</v>
+        <v>-0.1502116732871813</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05328486716664179</v>
+        <v>0.02397433176538583</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.636313781805228</v>
+        <v>0.5978111557374048</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.389432736304751</v>
+        <v>1.367972822588817</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07721505137054947</v>
+        <v>0.08354305816910697</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1405962468494864</v>
+        <v>-0.156327101979738</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1396219717779519</v>
+        <v>0.1364211133782503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05443481622615829</v>
+        <v>0.02499953776715442</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.08679026422455867</v>
+        <v>-0.07620025342617213</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3062848062542919</v>
+        <v>0.2956877408382107</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.412670852453276</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5673210880448254</v>
+        <v>0.5673210880448257</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.9694629375885679</v>
@@ -1083,7 +1083,7 @@
         <v>-2.986615762891075</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.620669346767931</v>
+        <v>1.620669346767929</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.020967353010627</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.525162546951695</v>
+        <v>-2.572581927682755</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.597213896203749</v>
+        <v>-2.665788578716238</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7369013401206448</v>
+        <v>-0.7475919840587606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.444935325173695</v>
+        <v>-3.324286515182231</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.289847243013838</v>
+        <v>-5.437602833383139</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4566258371850466</v>
+        <v>-0.7825467242781655</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.232782740308671</v>
+        <v>-2.246478578366241</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.336557744983864</v>
+        <v>-3.263932153005701</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.1072108931503886</v>
+        <v>-0.06913306818066399</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3426732553733853</v>
+        <v>-0.2733822930068104</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2656825203729729</v>
+        <v>-0.4512979206073733</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.073244766083474</v>
+        <v>2.065751368452002</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.245430924850411</v>
+        <v>1.207554409907251</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.652725806930443</v>
+        <v>-0.6892312847906797</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.74555524054713</v>
+        <v>3.984533542112409</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3078578574180811</v>
+        <v>0.3137327901723339</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.6924111731995952</v>
+        <v>-0.8973048791064272</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.476325618548297</v>
+        <v>2.473736958194364</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.6423416220211934</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2579609731939269</v>
+        <v>0.2579609731939271</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.129356678556893</v>
@@ -1188,7 +1188,7 @@
         <v>-0.3985079575854911</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2162479818551252</v>
+        <v>0.216247981855125</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2178244238056015</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8602366544344329</v>
+        <v>-0.8609496879191876</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8753751845638262</v>
+        <v>-0.8754251427794232</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2773275561946574</v>
+        <v>-0.2829743075233835</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3900793842014416</v>
+        <v>-0.390411798874459</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6196188689354981</v>
+        <v>-0.6185446727202146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04841933056208607</v>
+        <v>-0.09228494406220582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4217213214440342</v>
+        <v>-0.4278380632633378</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6326695486245175</v>
+        <v>-0.6232277350065732</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.02525745644507783</v>
+        <v>-0.01305064556690576</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1377079776470714</v>
+        <v>-0.07540370459974503</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.08164281474831753</v>
+        <v>-0.1459724546215413</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.298748321651438</v>
+        <v>1.288004532991698</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1964093709266083</v>
+        <v>0.1960452712306663</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.09814190302356127</v>
+        <v>-0.1047696228733885</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6081818360640531</v>
+        <v>0.6239777711719171</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07767586610625417</v>
+        <v>0.07866009276758262</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1622782510812567</v>
+        <v>-0.208080730738439</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.609716657370948</v>
+        <v>0.6065430158613739</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.981948696721527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.775534212815672</v>
+        <v>1.775534212815671</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-5.145694352513725</v>
@@ -1297,7 +1297,7 @@
         <v>-9.397598537806203</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.4055441231656937</v>
+        <v>-0.4055441231656923</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-2.852508291347828</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.526451708450353</v>
+        <v>-3.66757670139533</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.027734372067282</v>
+        <v>-4.052344465514865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6664144201733012</v>
+        <v>-0.5556627952812266</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.07972169513425</v>
+        <v>-9.885515685500232</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.78630077148051</v>
+        <v>-13.86318552383753</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.806279386422107</v>
+        <v>-4.656201826801216</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.14044703217267</v>
+        <v>-5.23076533621777</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.338126835750438</v>
+        <v>-7.467399328928089</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.062706390285712</v>
+        <v>-0.8982859861031258</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05158512299358416</v>
+        <v>0.06013578883193983</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2913614967851065</v>
+        <v>-0.3944377573895774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.588632398552975</v>
+        <v>3.491607957764748</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4659706202820995</v>
+        <v>-0.5934253758173922</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.510337831878406</v>
+        <v>-5.747051046036337</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.413663443482162</v>
+        <v>3.288617966550505</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.2616448136238721</v>
+        <v>-0.6245447058833853</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.838328458969682</v>
+        <v>-2.876475694460046</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.038486761119823</v>
+        <v>3.183498053738924</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.7532056349001248</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.674761347891047</v>
+        <v>0.6747613478910467</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.4046751393896811</v>
@@ -1402,7 +1402,7 @@
         <v>-0.7390595394297363</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.03189338762232776</v>
+        <v>-0.03189338762232765</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4077766992073347</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.9062707752173169</v>
+        <v>-0.9018026701591836</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.188100093469526</v>
+        <v>-0.1352917100837218</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6541539668198629</v>
+        <v>-0.635086200547674</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8757434187861995</v>
+        <v>-0.8718560401839135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2972211279377621</v>
+        <v>-0.2814461726916452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6108812396359401</v>
+        <v>-0.608263163716056</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.845165016658991</v>
+        <v>-0.8479143513238085</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1245050047716795</v>
+        <v>-0.1027593867172406</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1931246578664279</v>
+        <v>0.2641889720848399</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2971129630156443</v>
+        <v>-0.005939485640623448</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.413016508497608</v>
+        <v>2.281984480735162</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.04711016015571234</v>
+        <v>-0.04268006536904984</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.5109354838313286</v>
+        <v>-0.5422652885212534</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3532921437802604</v>
+        <v>0.3236758052734824</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.02151957012195813</v>
+        <v>-0.07966896641812445</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4623246927027418</v>
+        <v>-0.4827246132142609</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5467244437716362</v>
+        <v>0.5936752551901854</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.488911036985052</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8313220600799708</v>
+        <v>0.8313220600799701</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.305128257719185</v>
@@ -1511,7 +1511,7 @@
         <v>-4.600138338762278</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.1399654154226451</v>
+        <v>0.1399654154226465</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-2.057199213294713</v>
@@ -1520,7 +1520,7 @@
         <v>-3.040935730662667</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.5401265482704267</v>
+        <v>0.5401265482704282</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.603505547828468</v>
+        <v>-2.603179634106138</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.263825209041983</v>
+        <v>-2.239056665633265</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.07950841302262204</v>
+        <v>-0.03472321932674209</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.79629331322429</v>
+        <v>-3.688040506184159</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.015878920480963</v>
+        <v>-5.921510006858246</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.302589526455865</v>
+        <v>-1.23879714659048</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.946468115315168</v>
+        <v>-2.848606486596585</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.887918306246498</v>
+        <v>-3.853004680441015</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.2439849037023461</v>
+        <v>-0.320199210125163</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.128224634019723</v>
+        <v>-1.079361993094134</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.769672463122413</v>
+        <v>-0.7902027687521972</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.690562052024654</v>
+        <v>1.649182742291856</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.9950374938004913</v>
+        <v>-0.8937821926429819</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.340476102689865</v>
+        <v>-3.095798850371311</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.428787040554082</v>
+        <v>1.477301152354473</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.27535285319358</v>
+        <v>-1.260482934392244</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.312971214094979</v>
+        <v>-2.196601869105339</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.334491970991193</v>
+        <v>1.341528654238731</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4942335012891836</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2759514855126874</v>
+        <v>0.2759514855126872</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2152153535113451</v>
@@ -1616,7 +1616,7 @@
         <v>-0.4294860363897466</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.013067692115905</v>
+        <v>0.01306769211590513</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2976634346503861</v>
@@ -1625,7 +1625,7 @@
         <v>-0.4400037528161626</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.07815282179042918</v>
+        <v>0.07815282179042939</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7358497905875891</v>
+        <v>-0.7513178671560238</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6482091450407026</v>
+        <v>-0.6471109575065924</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02259274692930581</v>
+        <v>-0.01318495371485932</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3284704308956296</v>
+        <v>-0.3194185774108058</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5223841175839392</v>
+        <v>-0.5131363059734111</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1115166704583016</v>
+        <v>-0.1057280921032127</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3963649618394114</v>
+        <v>-0.3899809457760073</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5229242112887036</v>
+        <v>-0.522803218870627</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.0335388880096629</v>
+        <v>-0.04235651695501383</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4118715181596498</v>
+        <v>-0.4071833332295496</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.287843353581646</v>
+        <v>-0.3064980197246772</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6424442089632614</v>
+        <v>0.6394648127342099</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.09318240332896902</v>
+        <v>-0.08662675738559396</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.3278024831085308</v>
+        <v>-0.3057082632790348</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1446261533106758</v>
+        <v>0.1514205876314704</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1963713345659201</v>
+        <v>-0.192580881158551</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3467080796268418</v>
+        <v>-0.3396508525937473</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2047727591514323</v>
+        <v>0.2085462034142251</v>
       </c>
     </row>
     <row r="34">
